--- a/data/trans_dic/P50_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P50_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con cierta dificultad o más para llegar a fin de mes</t>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,26%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23,7%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,75; 38,62</t>
+          <t>23,53; 43,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 35,09</t>
+          <t>19,49; 43,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 27,25</t>
+          <t>14,5; 27,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,01; 34,99</t>
+          <t>19,38; 45,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,79; 36,68</t>
+          <t>14,7; 29,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,87; 30,79</t>
+          <t>25,1; 38,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,95; 32,96</t>
+          <t>19,69; 32,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 32,07</t>
+          <t>20,77; 33,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,64; 35,55</t>
+          <t>22,47; 35,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,18; 30,56</t>
+          <t>23,99; 37,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,33; 28,43</t>
+          <t>27,2; 38,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 30,63</t>
+          <t>21,49; 34,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>19,32; 28,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 38,45</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>21,66; 32,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>26,05%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>25,68%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>28,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>36,22%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,68%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,31%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>25,5%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,48%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>24,8%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>36,08%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,7; 34,74</t>
+          <t>21,53; 37,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 33,16</t>
+          <t>18,76; 33,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,96; 32,41</t>
+          <t>14,21; 28,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,93; 36,12</t>
+          <t>18,75; 34,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,22; 43,27</t>
+          <t>23,38; 40,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,76; 37,24</t>
+          <t>22,78; 37,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,28; 39,23</t>
+          <t>20,33; 34,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 34,31</t>
+          <t>21,18; 35,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,57; 36,93</t>
+          <t>17,78; 31,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,02; 32,75</t>
+          <t>32,1; 52,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,79; 33,9</t>
+          <t>24,19; 35,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,2; 33,61</t>
+          <t>20,61; 31,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 29,8</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 30,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>29,71; 42,99</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>54,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>35,7%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>31,43%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,36; 59,7</t>
+          <t>29,44; 81,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 30,32</t>
+          <t>3,26; 32,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 29,45</t>
+          <t>2,56; 33,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 52,3</t>
+          <t>16,77; 75,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,64; 49,89</t>
+          <t>10,22; 51,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 36,81</t>
+          <t>22,67; 56,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,26; 55,0</t>
+          <t>8,99; 37,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,42; 48,52</t>
+          <t>21,42; 53,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,56; 50,53</t>
+          <t>14,25; 45,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,45; 30,45</t>
+          <t>20,82; 52,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,52; 39,22</t>
+          <t>32,86; 65,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,28; 44,88</t>
+          <t>8,18; 27,65</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,96; 38,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22,15; 59,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,49; 45,56</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 35,87</t>
+          <t>27,22; 40,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,45</t>
+          <t>19,64; 32,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 26,36</t>
+          <t>15,93; 25,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,45; 32,63</t>
+          <t>22,49; 38,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 38,18</t>
+          <t>20,48; 32,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,13</t>
+          <t>27,51; 36,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 35,54</t>
+          <t>20,83; 29,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,25; 31,9</t>
+          <t>23,86; 32,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,7; 35,35</t>
+          <t>22,89; 31,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 29,26</t>
+          <t>29,63; 40,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,86; 30,16</t>
+          <t>28,73; 36,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 30,88</t>
+          <t>21,8; 29,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,75; 27,58</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 32,25</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 35,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,26%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>115055</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>116813</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>75261</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>107666</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>113407</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>138503</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>127727</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>109419</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>116798</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>170454</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>253558</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>244540</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>184680</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>224463</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>283862</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>86043; 157527</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>83186; 186077</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52599; 100872</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73809; 172848</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>74120; 149986</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>107723; 166614</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>99614; 162129</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>86542; 137755</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>90722; 142813</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>133919; 211071</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>216192; 305635</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>200401; 320087</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>150559; 222870</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>183056; 301671</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>230101; 341512</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84590</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>88547</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65657</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>81905</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>128552</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>104199</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>110785</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93372</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80600</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>174985</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>188789</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>199332</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>159029</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>162505</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>303537</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64567; 111425</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>66839; 118896</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44874; 89618</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60032; 111044</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>96421; 168037</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78770; 131091</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>86480; 147206</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>70730; 118108</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>59579; 104563</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>137700; 224495</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>156176; 226032</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>161100; 246808</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>127609; 193644</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>131338; 201034</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>249952; 361685</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13773</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10674</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35820</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33427</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31782</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19860</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28999</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22839</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38470</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>76391</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33633</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>39673</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>58659</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>71897</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24175; 66808</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3320; 33243</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2040; 26295</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14353; 64837</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12199; 60946</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18729; 46902</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9092; 37574</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17087; 42602</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11220; 36187</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22767; 57109</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>54140; 108058</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16603; 56113</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23834; 60714</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>36390; 98386</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>42291; 104219</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>244253</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>219133</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>151592</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>225390</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>275386</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>274485</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>258372</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>231791</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>220237</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>383909</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>518738</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>477505</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>383382</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>445627</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>659295</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>203572; 305903</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>173793; 286688</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>120750; 194177</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>176946; 305196</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>212141; 339383</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>235892; 313190</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>215056; 303423</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>198148; 271781</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>187130; 260562</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>324920; 449159</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>461170; 587229</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>417985; 565249</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>329666; 438087</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>383431; 517318</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>571629; 752829</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
